--- a/dir_Sexo.xlsx
+++ b/dir_Sexo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alexander_2019\Phyton\Base_datos\DANE\Encuesta de Micronegocios - 2023\Directorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85191EA5-C7DC-4C90-9ABE-61E368E34285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5B1D7B-DFA4-458C-89EB-F52C2BC83B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02910F3A-A5A7-4915-BF5B-59FB00B0F360}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>Mujer</t>
   </si>
   <si>
-    <t>P35</t>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -82,8 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529716DA-73F1-4BFF-A0A4-C20EFF7A1C9F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -428,10 +433,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
